--- a/src/test/java/ApachePOI/Resources/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/Resources/ApacheExcel2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99C0AD-A3DF-4EF3-B722-34724DF91776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7835E-E2EF-4A83-B865-02CDA4B787AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-2448" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testCitizen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Lion</t>
   </si>
@@ -49,16 +50,70 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Us Batch 8 1</t>
+  </si>
+  <si>
+    <t>Us Batch 8 2</t>
+  </si>
+  <si>
+    <t>Us Batch 8 3</t>
+  </si>
+  <si>
+    <t>Us Batch 8 4</t>
+  </si>
+  <si>
+    <t>Us Batch 8 5</t>
+  </si>
+  <si>
+    <t>Us Batch 8 6</t>
+  </si>
+  <si>
+    <t>Us Batch 8 7</t>
+  </si>
+  <si>
+    <t>Us Batch 8 8</t>
+  </si>
+  <si>
+    <t>ub81</t>
+  </si>
+  <si>
+    <t>ub82</t>
+  </si>
+  <si>
+    <t>ub83</t>
+  </si>
+  <si>
+    <t>ub84</t>
+  </si>
+  <si>
+    <t>ub85</t>
+  </si>
+  <si>
+    <t>ub86</t>
+  </si>
+  <si>
+    <t>ub87</t>
+  </si>
+  <si>
+    <t>ub88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,4 +501,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>